--- a/日本東京茨城0719-0723_回國後更新.xlsx
+++ b/日本東京茨城0719-0723_回國後更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="45" windowWidth="24495" windowHeight="14280" activeTab="7"/>
+    <workbookView xWindow="645" yWindow="45" windowWidth="24495" windowHeight="14295" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="行程" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="明細" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">明細!$L$1:$L$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">明細!$C$1:$C$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">統整花費!$A$1:$G$86</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="450">
   <si>
     <t>項目名稱</t>
   </si>
@@ -1043,10 +1043,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>欣總計</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>EDWIN(老爸腰帶)</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1408,10 +1404,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>媽(10397-888)+899</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>媽+爸</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1464,6 +1456,146 @@
     <t>公帳有誤差</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t>欣含代購總計</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽山道請客</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>earth衣服</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>送清河盈秀衣服</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂高</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>美妝店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>米妮眉筆</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>特價杯緣子</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>美少女眼藥水</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>史努比一番賞</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＯＰＥＲＡ口紅</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>有形口罩</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥哥骰子</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>中川政七</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>加值</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具總動員杯緣子</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊貓陶謙</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵局</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣自己買東西</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>上野藥妝店牙刷</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅馬遜</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1648公車</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽(3997-888)+899</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際每人花費</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>媽</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ｘ</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸媽(8005)+住宿(19200)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>總計花費</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>出國總計花費總額(2人)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>出國總計花費總額(每人)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTT玻璃吸管</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1473,7 +1605,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1606,12 +1738,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1672,8 +1811,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1734,8 +1879,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1748,8 +1908,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1855,10 +2027,36 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="20" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="20" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="20" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1869,16 +2067,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="24">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="已瀏覽過的超連結" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="2" builtinId="9" hidden="1"/>
@@ -1891,6 +2081,18 @@
     <cellStyle name="已瀏覽過的超連結" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已瀏覽過的超連結" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已瀏覽過的超連結" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -40295,7 +40497,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="99" t="s">
         <v>188</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -40307,13 +40509,13 @@
       <c r="D3" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="95" t="s">
         <v>192</v>
       </c>
       <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="78"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="34" t="s">
         <v>193</v>
       </c>
@@ -40323,15 +40525,15 @@
       <c r="D4" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="101" t="s">
         <v>196</v>
       </c>
       <c r="B5" s="40"/>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="103" t="s">
         <v>200</v>
       </c>
       <c r="D5" s="43" t="s">
@@ -40341,9 +40543,9 @@
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="80"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="40"/>
-      <c r="C6" s="76"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="45" t="s">
         <v>215</v>
       </c>
@@ -40351,9 +40553,9 @@
       <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="80"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="40"/>
-      <c r="C7" s="76"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="46" t="s">
         <v>222</v>
       </c>
@@ -40361,7 +40563,7 @@
       <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="78"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="47"/>
       <c r="C8" s="48" t="s">
         <v>223</v>
@@ -40373,7 +40575,7 @@
       <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="99" t="s">
         <v>225</v>
       </c>
       <c r="B9" s="33"/>
@@ -40386,12 +40588,12 @@
       <c r="E9" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="95" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="78"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="37"/>
       <c r="C10" s="30" t="s">
         <v>230</v>
@@ -40400,10 +40602,10 @@
         <v>231</v>
       </c>
       <c r="E10" s="37"/>
-      <c r="F10" s="74"/>
+      <c r="F10" s="96"/>
     </row>
     <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="97" t="s">
         <v>232</v>
       </c>
       <c r="B11" s="40"/>
@@ -40417,7 +40619,7 @@
       <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="76"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="40"/>
       <c r="C12" s="51" t="s">
         <v>235</v>
@@ -40578,7 +40780,7 @@
         <v>204</v>
       </c>
       <c r="D3" s="41"/>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="104" t="s">
         <v>205</v>
       </c>
     </row>
@@ -40587,7 +40789,7 @@
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
       <c r="D4" s="41"/>
-      <c r="E4" s="76"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="39" t="s">
@@ -40679,8 +40881,8 @@
   </sheetPr>
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="A21:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -41328,7 +41530,7 @@
   </sheetPr>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A86" sqref="A8:A86"/>
     </sheetView>
   </sheetViews>
@@ -41912,7 +42114,7 @@
         <v>43301</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C23" s="60" t="s">
         <v>112</v>
@@ -42209,13 +42411,13 @@
         <v>43302</v>
       </c>
       <c r="B35" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="D35" s="60" t="s">
         <v>339</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>340</v>
       </c>
       <c r="E35" s="60">
         <v>648</v>
@@ -42235,13 +42437,13 @@
         <v>43302</v>
       </c>
       <c r="B36" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="C36" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="D36" s="60" t="s">
         <v>342</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>343</v>
       </c>
       <c r="E36" s="60">
         <v>580</v>
@@ -42261,13 +42463,13 @@
         <v>43302</v>
       </c>
       <c r="B37" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C37" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="C37" s="60" t="s">
-        <v>345</v>
-      </c>
       <c r="D37" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E37" s="60">
         <v>2235</v>
@@ -42287,13 +42489,13 @@
         <v>43302</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C38" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38" s="60" t="s">
         <v>342</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>343</v>
       </c>
       <c r="E38" s="60">
         <v>594</v>
@@ -42313,13 +42515,13 @@
         <v>43302</v>
       </c>
       <c r="B39" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" s="60" t="s">
         <v>347</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="D39" s="60" t="s">
-        <v>348</v>
       </c>
       <c r="E39" s="60">
         <v>550</v>
@@ -42339,13 +42541,13 @@
         <v>43302</v>
       </c>
       <c r="B40" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="C40" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="D40" s="60" t="s">
         <v>318</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>319</v>
       </c>
       <c r="E40" s="60">
         <v>1000</v>
@@ -42365,13 +42567,13 @@
         <v>43302</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D41" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E41" s="60">
         <v>216</v>
@@ -42391,13 +42593,13 @@
         <v>43302</v>
       </c>
       <c r="B42" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="D42" s="60" t="s">
         <v>321</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>319</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>322</v>
       </c>
       <c r="E42" s="60">
         <v>556</v>
@@ -42417,13 +42619,13 @@
         <v>43302</v>
       </c>
       <c r="B43" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="C43" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="C43" s="60" t="s">
-        <v>324</v>
-      </c>
       <c r="D43" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E43" s="60">
         <v>864</v>
@@ -42443,13 +42645,13 @@
         <v>43302</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E44" s="60">
         <v>1986</v>
@@ -42469,13 +42671,13 @@
         <v>43302</v>
       </c>
       <c r="B45" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="C45" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="C45" s="60" t="s">
-        <v>365</v>
-      </c>
       <c r="D45" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E45" s="60">
         <v>3410</v>
@@ -42495,13 +42697,13 @@
         <v>43302</v>
       </c>
       <c r="B46" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="D46" s="60" t="s">
         <v>367</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>368</v>
       </c>
       <c r="E46" s="60">
         <v>4000</v>
@@ -42521,13 +42723,13 @@
         <v>43302</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E47" s="60">
         <v>432</v>
@@ -42547,13 +42749,13 @@
         <v>43302</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E48" s="60">
         <v>170</v>
@@ -42669,7 +42871,7 @@
         <v>43302</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C53" s="67" t="s">
         <v>279</v>
@@ -42693,13 +42895,13 @@
         <v>43302</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C54" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D54" s="67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E54" s="68">
         <v>972</v>
@@ -42742,13 +42944,13 @@
         <v>43303</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C56" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="D56" s="67" t="s">
         <v>342</v>
-      </c>
-      <c r="D56" s="67" t="s">
-        <v>343</v>
       </c>
       <c r="E56" s="68">
         <v>2920</v>
@@ -42767,13 +42969,13 @@
         <v>43303</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C57" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="D57" s="67" t="s">
         <v>342</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>343</v>
       </c>
       <c r="E57" s="68">
         <v>300</v>
@@ -42792,13 +42994,13 @@
         <v>43303</v>
       </c>
       <c r="B58" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="C58" s="67" t="s">
         <v>352</v>
       </c>
-      <c r="C58" s="67" t="s">
-        <v>353</v>
-      </c>
       <c r="D58" s="67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E58" s="68">
         <v>236</v>
@@ -42817,13 +43019,13 @@
         <v>43303</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C59" s="67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D59" s="67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E59" s="68">
         <v>1200</v>
@@ -42842,13 +43044,13 @@
         <v>43303</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C60" s="67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D60" s="67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E60" s="68">
         <v>450</v>
@@ -42867,13 +43069,13 @@
         <v>43303</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D61" s="67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E61" s="68">
         <v>450</v>
@@ -42892,13 +43094,13 @@
         <v>43303</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C62" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D62" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E62" s="68">
         <v>1566</v>
@@ -42917,13 +43119,13 @@
         <v>43303</v>
       </c>
       <c r="B63" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="C63" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="D63" s="67" t="s">
         <v>329</v>
-      </c>
-      <c r="C63" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="D63" s="67" t="s">
-        <v>330</v>
       </c>
       <c r="E63" s="68">
         <v>2341</v>
@@ -42942,10 +43144,10 @@
         <v>43303</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C64" s="67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D64" s="67" t="s">
         <v>280</v>
@@ -42966,13 +43168,13 @@
         <v>43303</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C65" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D65" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E65" s="68">
         <v>2404</v>
@@ -42990,13 +43192,13 @@
         <v>43303</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C66" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="D66" s="67" t="s">
         <v>330</v>
-      </c>
-      <c r="D66" s="67" t="s">
-        <v>331</v>
       </c>
       <c r="E66" s="68">
         <v>2097</v>
@@ -43014,13 +43216,13 @@
         <v>43303</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D67" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E67" s="68">
         <v>800</v>
@@ -43089,10 +43291,10 @@
         <v>300</v>
       </c>
       <c r="C70" s="67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D70" s="67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E70" s="68">
         <v>2580</v>
@@ -43110,13 +43312,13 @@
         <v>43303</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C71" s="67" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D71" s="67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E71" s="68">
         <v>3420</v>
@@ -43134,13 +43336,13 @@
         <v>43303</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C72" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D72" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E72" s="68">
         <v>322</v>
@@ -43158,13 +43360,13 @@
         <v>43303</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C73" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D73" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E73" s="68">
         <v>108</v>
@@ -43182,13 +43384,13 @@
         <v>43303</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C74" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D74" s="67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E74" s="68">
         <v>600</v>
@@ -43206,13 +43408,13 @@
         <v>43304</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D75" s="67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E75" s="68">
         <v>800</v>
@@ -43230,7 +43432,7 @@
         <v>43304</v>
       </c>
       <c r="B76" s="61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C76" s="56" t="s">
         <v>289</v>
@@ -43254,13 +43456,13 @@
         <v>43304</v>
       </c>
       <c r="B77" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C77" s="56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E77" s="56">
         <v>4224</v>
@@ -43278,13 +43480,13 @@
         <v>43304</v>
       </c>
       <c r="B78" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="C78" s="56" t="s">
+      <c r="D78" s="56" t="s">
         <v>334</v>
-      </c>
-      <c r="D78" s="56" t="s">
-        <v>335</v>
       </c>
       <c r="E78" s="56">
         <v>1296</v>
@@ -43302,13 +43504,13 @@
         <v>43304</v>
       </c>
       <c r="B79" s="61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E79" s="56">
         <v>1296</v>
@@ -43326,13 +43528,13 @@
         <v>43304</v>
       </c>
       <c r="B80" s="61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E80" s="56">
         <v>618</v>
@@ -43350,13 +43552,13 @@
         <v>43304</v>
       </c>
       <c r="B81" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="C81" s="56" t="s">
         <v>378</v>
       </c>
-      <c r="C81" s="56" t="s">
-        <v>379</v>
-      </c>
       <c r="D81" s="56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E81" s="56">
         <v>254</v>
@@ -43374,13 +43576,13 @@
         <v>43304</v>
       </c>
       <c r="B82" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="D82" s="56" t="s">
         <v>336</v>
-      </c>
-      <c r="C82" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="D82" s="56" t="s">
-        <v>337</v>
       </c>
       <c r="E82" s="56">
         <v>800</v>
@@ -43398,13 +43600,13 @@
         <v>43304</v>
       </c>
       <c r="B83" s="61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C83" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="D83" s="56" t="s">
         <v>342</v>
-      </c>
-      <c r="D83" s="56" t="s">
-        <v>343</v>
       </c>
       <c r="E83" s="56">
         <v>3090</v>
@@ -43422,13 +43624,13 @@
         <v>43304</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C84" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="D84" s="56" t="s">
         <v>342</v>
-      </c>
-      <c r="D84" s="56" t="s">
-        <v>343</v>
       </c>
       <c r="E84" s="56">
         <v>3180</v>
@@ -43446,13 +43648,13 @@
         <v>43304</v>
       </c>
       <c r="B85" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="D85" s="56" t="s">
         <v>380</v>
-      </c>
-      <c r="C85" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="D85" s="56" t="s">
-        <v>381</v>
       </c>
       <c r="E85" s="56">
         <v>1600</v>
@@ -43470,13 +43672,13 @@
         <v>43304</v>
       </c>
       <c r="B86" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C86" s="56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E86" s="56">
         <v>1106</v>
@@ -43504,10 +43706,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R45"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -43531,1268 +43736,1980 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="69"/>
+      <c r="B1" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69" t="s">
         <v>306</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="69"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="71">
+        <v>43299</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="73">
+        <v>440</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="74">
+        <v>43124</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="69">
+        <v>7224</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="74">
+        <v>43124</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="L2" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="69">
+        <v>16348</v>
+      </c>
+      <c r="N2" s="69"/>
+      <c r="O2" s="76">
+        <v>43300</v>
+      </c>
+      <c r="P2" s="72" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q2" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="73">
+        <v>91.080000000000013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="71">
+        <v>43302</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="73">
+        <v>1105</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="74">
+        <v>43300</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="69">
+        <v>2439</v>
+      </c>
+      <c r="I3" s="69"/>
+      <c r="J3" s="74">
+        <v>43300</v>
+      </c>
+      <c r="K3" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="69">
+        <v>270</v>
+      </c>
+      <c r="N3" s="69"/>
+      <c r="O3" s="71">
+        <v>43303</v>
+      </c>
+      <c r="P3" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q3" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="R3" s="77">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="74">
+        <v>43304</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="75">
+        <v>888</v>
+      </c>
+      <c r="E4" s="69"/>
+      <c r="F4" s="74">
+        <v>43300</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="69">
+        <v>1017</v>
+      </c>
+      <c r="I4" s="69"/>
+      <c r="J4" s="74">
+        <v>43300</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="69">
+        <v>405</v>
+      </c>
+      <c r="N4" s="69"/>
+      <c r="O4" s="74">
+        <v>43304</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q4" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="R4" s="83">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="74">
+        <v>43300</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="75">
+        <v>153</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="74">
+        <v>43289</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="69">
+        <v>1837</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="74">
+        <v>43301</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="69">
+        <v>363</v>
+      </c>
+      <c r="N5" s="69"/>
+      <c r="O5" s="71">
+        <v>43304</v>
+      </c>
+      <c r="P5" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="R5" s="77">
+        <v>362.88000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="74">
+        <v>43300</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="69">
+        <v>420</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="74">
+        <v>43301</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="H6" s="69">
+        <v>626</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="74">
+        <v>43301</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="L6" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="69">
+        <v>48</v>
+      </c>
+      <c r="N6" s="69"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77" t="s">
         <v>390</v>
       </c>
-      <c r="Q1" s="62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="84">
-        <v>43299</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="88">
-        <v>440</v>
-      </c>
-      <c r="F2" s="58">
-        <v>43124</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" s="56">
-        <v>7224</v>
-      </c>
-      <c r="J2" s="58">
-        <v>43124</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="L2" s="60" t="s">
+      <c r="Q6" s="77" t="s">
+        <v>391</v>
+      </c>
+      <c r="R6" s="77">
+        <v>128.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="71">
+        <v>43300</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="77">
+        <v>8182</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="81">
+        <v>43301</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="69">
+        <v>825</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="74">
+        <v>43301</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="56">
-        <v>16348</v>
-      </c>
-      <c r="O2" s="89">
+      <c r="M7" s="69">
+        <v>575</v>
+      </c>
+      <c r="N7" s="69"/>
+      <c r="O7" s="82">
         <v>43300</v>
       </c>
-      <c r="P2" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q2" s="88" t="s">
+      <c r="P7" s="83" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q7" s="94" t="s">
+        <v>442</v>
+      </c>
+      <c r="R7" s="83">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="74">
+        <v>43300</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="69">
+        <v>296</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="81">
+        <v>43301</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="69">
+        <v>1020</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="71">
+        <v>43300</v>
+      </c>
+      <c r="K8" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="L8" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="88">
-        <v>91.080000000000013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="84">
+      <c r="M8" s="77">
+        <v>1639</v>
+      </c>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q8" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="R8" s="69">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="82">
         <v>43302</v>
       </c>
-      <c r="B3" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="86" t="s">
+      <c r="G9" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="69">
+        <v>537</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="71">
+        <v>43300</v>
+      </c>
+      <c r="K9" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="L9" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="77">
+        <v>1048</v>
+      </c>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="74">
+        <v>43301</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="69">
+        <v>840</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="82">
+        <v>43302</v>
+      </c>
+      <c r="G10" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="69">
+        <v>834</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="76">
+        <v>43301</v>
+      </c>
+      <c r="K10" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="77">
+        <v>939</v>
+      </c>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="R10" s="69">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="74">
+        <v>43301</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="69">
+        <v>199</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="H11" s="69">
+        <v>2804</v>
+      </c>
+      <c r="I11" s="69"/>
+      <c r="J11" s="76">
+        <v>43301</v>
+      </c>
+      <c r="K11" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="77">
+        <v>889</v>
+      </c>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69" t="s">
+        <v>393</v>
+      </c>
+      <c r="R11" s="69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="71">
+        <v>43301</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="88">
-        <v>1105</v>
-      </c>
-      <c r="F3" s="58">
-        <v>43300</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="56">
-        <v>2439</v>
-      </c>
-      <c r="J3" s="58">
-        <v>43300</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" s="56">
-        <v>270</v>
-      </c>
-      <c r="O3" s="84">
-        <v>43303</v>
-      </c>
-      <c r="P3" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q3" s="86" t="s">
+      <c r="D12" s="77">
+        <v>1377</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="74">
+        <v>43302</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="H12" s="69">
         <v>280</v>
       </c>
-      <c r="R3" s="86">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="58">
-        <v>43304</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="60">
-        <v>888</v>
-      </c>
-      <c r="F4" s="58">
-        <v>43300</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="56">
-        <v>1017</v>
-      </c>
-      <c r="J4" s="58">
-        <v>43300</v>
-      </c>
-      <c r="K4" s="56">
-        <v>1648</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" s="56">
+      <c r="I12" s="69"/>
+      <c r="J12" s="76">
+        <v>43301</v>
+      </c>
+      <c r="K12" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="77">
+        <v>392</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="74">
+        <v>43301</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="69">
+        <v>467</v>
+      </c>
+      <c r="E13" s="69"/>
+      <c r="F13" s="74">
+        <v>43302</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="H13" s="69">
+        <v>60.48</v>
+      </c>
+      <c r="I13" s="69"/>
+      <c r="J13" s="71">
+        <v>43302</v>
+      </c>
+      <c r="K13" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="77">
+        <v>2147</v>
+      </c>
+      <c r="N13" s="69"/>
+      <c r="O13" s="86">
+        <v>43302</v>
+      </c>
+      <c r="P13" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="74">
+        <v>43301</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="69">
+        <v>418</v>
+      </c>
+      <c r="E14" s="69"/>
+      <c r="F14" s="74">
+        <v>43302</v>
+      </c>
+      <c r="G14" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="O4" s="58">
-        <v>43304</v>
-      </c>
-      <c r="P4" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="R4" s="67">
-        <v>126.56000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="58">
-        <v>43300</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="H14" s="69">
+        <v>155.68</v>
+      </c>
+      <c r="I14" s="69"/>
+      <c r="J14" s="71">
+        <v>43302</v>
+      </c>
+      <c r="K14" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="L14" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="77">
+        <v>894</v>
+      </c>
+      <c r="N14" s="69"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="74">
+        <v>43302</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="H15" s="69">
+        <v>241.92</v>
+      </c>
+      <c r="I15" s="69"/>
+      <c r="J15" s="81">
+        <v>43302</v>
+      </c>
+      <c r="K15" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="L15" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="M15" s="69">
+        <v>954.8</v>
+      </c>
+      <c r="N15" s="69"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="88" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="74">
+        <v>43302</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="60">
-        <v>153</v>
-      </c>
-      <c r="F5" s="58">
-        <v>43289</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="H5" s="56">
-        <v>1837</v>
-      </c>
-      <c r="J5" s="58">
-        <v>43301</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="56">
-        <v>363</v>
-      </c>
-      <c r="O5" s="84">
-        <v>43304</v>
-      </c>
-      <c r="P5" s="85" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q5" s="86" t="s">
-        <v>335</v>
-      </c>
-      <c r="R5" s="86">
-        <v>362.88000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="58">
-        <v>43300</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="60" t="s">
+      <c r="D16" s="69">
+        <v>181.44</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="74">
+        <v>43302</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="H16" s="69">
+        <v>556.08000000000004</v>
+      </c>
+      <c r="I16" s="69"/>
+      <c r="J16" s="81">
+        <v>43302</v>
+      </c>
+      <c r="K16" s="78" t="s">
+        <v>365</v>
+      </c>
+      <c r="L16" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="M16" s="69">
+        <v>1120</v>
+      </c>
+      <c r="N16" s="69"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="74">
+        <v>43302</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="56">
-        <v>420</v>
-      </c>
-      <c r="F6" s="58">
-        <v>43301</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="H6" s="56">
-        <v>626</v>
-      </c>
-      <c r="J6" s="58">
-        <v>43301</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" s="56">
-        <v>48</v>
-      </c>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q6" s="86" t="s">
-        <v>392</v>
-      </c>
-      <c r="R6" s="86">
-        <v>128.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="84">
-        <v>43300</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" s="86">
-        <v>8182</v>
-      </c>
-      <c r="F7" s="64">
-        <v>43301</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="H7" s="56">
-        <v>825</v>
-      </c>
-      <c r="J7" s="58">
-        <v>43301</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="L7" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="56">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="58">
-        <v>43300</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="56">
-        <v>296</v>
-      </c>
-      <c r="F8" s="64">
-        <v>43301</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="56">
-        <v>1020</v>
-      </c>
-      <c r="J8" s="84">
-        <v>43300</v>
-      </c>
-      <c r="K8" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="L8" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="86">
-        <v>1639</v>
-      </c>
-      <c r="Q8" s="56" t="s">
-        <v>393</v>
-      </c>
-      <c r="R8" s="56">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="84">
-        <v>43300</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="86">
-        <v>11753</v>
-      </c>
-      <c r="F9" s="65">
+      <c r="D17" s="69">
+        <v>162.4</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G17" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="H17" s="69">
+        <v>438.48</v>
+      </c>
+      <c r="I17" s="69"/>
+      <c r="J17" s="81">
         <v>43302</v>
       </c>
-      <c r="G9" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="H9" s="56">
-        <v>537</v>
-      </c>
-      <c r="J9" s="84">
-        <v>43300</v>
-      </c>
-      <c r="K9" s="86" t="s">
-        <v>315</v>
-      </c>
-      <c r="L9" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="86">
-        <v>1048</v>
-      </c>
-      <c r="Q9" s="56" t="s">
-        <v>394</v>
-      </c>
-      <c r="R9" s="56">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="58">
-        <v>43301</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="56">
-        <v>840</v>
-      </c>
-      <c r="F10" s="65">
-        <v>43302</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" s="56">
-        <v>834</v>
-      </c>
-      <c r="J10" s="89">
-        <v>43301</v>
-      </c>
-      <c r="K10" s="87" t="s">
-        <v>168</v>
-      </c>
-      <c r="L10" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="86">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="58">
-        <v>43301</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="56">
-        <v>199</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>404</v>
-      </c>
-      <c r="H11" s="56">
-        <v>2804</v>
-      </c>
-      <c r="J11" s="89">
-        <v>43301</v>
-      </c>
-      <c r="K11" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="86">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="84">
-        <v>43301</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="86">
-        <v>1377</v>
-      </c>
-      <c r="F12" s="58">
-        <v>43302</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>405</v>
-      </c>
-      <c r="H12" s="56">
-        <v>280</v>
-      </c>
-      <c r="J12" s="89">
-        <v>43301</v>
-      </c>
-      <c r="K12" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="L12" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="86">
-        <v>392</v>
-      </c>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="58">
-        <v>43301</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="56">
-        <v>467</v>
-      </c>
-      <c r="F13" s="58">
-        <v>43302</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="H13" s="56">
-        <v>60.48</v>
-      </c>
-      <c r="J13" s="84">
-        <v>43302</v>
-      </c>
-      <c r="K13" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="L13" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="M13" s="86">
-        <v>2147</v>
-      </c>
-      <c r="O13" s="71">
-        <v>43302</v>
-      </c>
-      <c r="P13" s="72" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="58">
-        <v>43301</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="56">
-        <v>418</v>
-      </c>
-      <c r="F14" s="58">
-        <v>43302</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>407</v>
-      </c>
-      <c r="H14" s="56">
-        <v>155.68</v>
-      </c>
-      <c r="J14" s="84">
-        <v>43302</v>
-      </c>
-      <c r="K14" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="L14" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="86">
-        <v>894</v>
-      </c>
-      <c r="O14" s="83"/>
-      <c r="P14" s="90" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="84">
-        <v>43302</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="86">
-        <v>7447</v>
-      </c>
-      <c r="F15" s="58">
-        <v>43302</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>408</v>
-      </c>
-      <c r="H15" s="56">
-        <v>241.92</v>
-      </c>
-      <c r="J15" s="64">
-        <v>43302</v>
-      </c>
-      <c r="K15" s="59" t="s">
+      <c r="K17" s="78" t="s">
+        <v>368</v>
+      </c>
+      <c r="L17" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="L15" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="M15" s="56">
-        <v>954.8</v>
-      </c>
-      <c r="O15" s="83"/>
-      <c r="P15" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="58">
-        <v>43302</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" s="56">
-        <v>181.44</v>
-      </c>
-      <c r="F16" s="58">
-        <v>43302</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="H16" s="56">
-        <v>556.08000000000004</v>
-      </c>
-      <c r="J16" s="64">
-        <v>43302</v>
-      </c>
-      <c r="K16" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>368</v>
-      </c>
-      <c r="M16" s="56">
-        <v>1120</v>
-      </c>
-      <c r="O16" s="83"/>
-      <c r="P16" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="58">
-        <v>43302</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>384</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" s="56">
-        <v>162.4</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>388</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>410</v>
-      </c>
-      <c r="H17" s="56">
-        <v>438.48</v>
-      </c>
-      <c r="J17" s="64">
-        <v>43302</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>369</v>
-      </c>
-      <c r="L17" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="M17" s="56">
+      <c r="M17" s="69">
         <v>120.96</v>
       </c>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83">
+      <c r="N17" s="69"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85">
         <f>SUM(R13:R16)</f>
         <v>4139</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="58">
+      <c r="A18" s="74">
         <v>43302</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="80" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="69">
+        <v>625.79999999999995</v>
+      </c>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="H18" s="69">
+        <v>655.48</v>
+      </c>
+      <c r="I18" s="69"/>
+      <c r="J18" s="81">
+        <v>43302</v>
+      </c>
+      <c r="K18" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="M18" s="69">
+        <v>47.6</v>
+      </c>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="74">
+        <v>43302</v>
+      </c>
+      <c r="B19" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="C18" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" s="56">
-        <v>625.79999999999995</v>
-      </c>
-      <c r="F18" s="56" t="s">
+      <c r="C19" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="69">
+        <v>166.32</v>
+      </c>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="H19" s="69">
+        <v>663.50400000000002</v>
+      </c>
+      <c r="I19" s="69"/>
+      <c r="J19" s="82">
+        <v>43302</v>
+      </c>
+      <c r="K19" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="L19" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="M19" s="69">
+        <v>272.16000000000003</v>
+      </c>
+      <c r="N19" s="69"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="74">
+        <v>43302</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="69">
+        <v>154</v>
+      </c>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="H20" s="69">
+        <v>587.16</v>
+      </c>
+      <c r="I20" s="69"/>
+      <c r="J20" s="71">
+        <v>43303</v>
+      </c>
+      <c r="K20" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="L20" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="M20" s="77">
+        <v>872.43600000000004</v>
+      </c>
+      <c r="N20" s="69"/>
+      <c r="O20" s="89">
+        <v>43300</v>
+      </c>
+      <c r="P20" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="82">
+        <v>43303</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="69">
+        <v>817.6</v>
+      </c>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="H21" s="69">
+        <v>224</v>
+      </c>
+      <c r="I21" s="69"/>
+      <c r="J21" s="82">
+        <v>43303</v>
+      </c>
+      <c r="K21" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="L21" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="M21" s="69">
+        <v>90.16</v>
+      </c>
+      <c r="N21" s="69"/>
+      <c r="O21" s="86">
+        <v>43303</v>
+      </c>
+      <c r="P21" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="82">
+        <v>43303</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="69">
+        <v>84</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="G18" s="56" t="s">
-        <v>411</v>
-      </c>
-      <c r="H18" s="56">
-        <v>655.48</v>
-      </c>
-      <c r="J18" s="64">
-        <v>43302</v>
-      </c>
-      <c r="K18" s="59" t="s">
-        <v>370</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="M18" s="56">
-        <v>47.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="58">
-        <v>43302</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="D19" s="56">
-        <v>166.32</v>
-      </c>
-      <c r="F19" s="56" t="s">
+      <c r="G22" s="69" t="s">
+        <v>412</v>
+      </c>
+      <c r="H22" s="69">
+        <v>362.88</v>
+      </c>
+      <c r="I22" s="69"/>
+      <c r="J22" s="82">
+        <v>43303</v>
+      </c>
+      <c r="K22" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="L22" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="M22" s="69">
+        <v>30.24</v>
+      </c>
+      <c r="N22" s="69"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="82">
+        <v>43303</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="69">
+        <v>66.08</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="G19" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="H19" s="56">
-        <v>663.50400000000002</v>
-      </c>
-      <c r="J19" s="65">
-        <v>43302</v>
-      </c>
-      <c r="K19" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="L19" s="67" t="s">
-        <v>368</v>
-      </c>
-      <c r="M19" s="56">
-        <v>272.16000000000003</v>
-      </c>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="58">
-        <v>43302</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="D20" s="56">
-        <v>154</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>388</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="H20" s="56">
-        <v>587.16</v>
-      </c>
-      <c r="J20" s="84">
+      <c r="G23" s="69" t="s">
+        <v>413</v>
+      </c>
+      <c r="H23" s="69">
+        <v>220.8</v>
+      </c>
+      <c r="I23" s="69"/>
+      <c r="J23" s="82">
         <v>43303</v>
       </c>
-      <c r="K20" s="85" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="M20" s="86">
-        <v>872.43600000000004</v>
-      </c>
-      <c r="O20" s="69">
-        <v>43300</v>
-      </c>
-      <c r="P20" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="65">
+      <c r="K23" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="L23" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="M23" s="69">
+        <v>168</v>
+      </c>
+      <c r="N23" s="69"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="82">
         <v>43303</v>
       </c>
-      <c r="B21" s="66" t="s">
-        <v>350</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="56">
-        <v>817.6</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>388</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="H21" s="56">
-        <v>224</v>
-      </c>
-      <c r="J21" s="65">
-        <v>43303</v>
-      </c>
-      <c r="K21" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="L21" s="67" t="s">
-        <v>365</v>
-      </c>
-      <c r="M21" s="56">
-        <v>90.16</v>
-      </c>
-      <c r="O21" s="71">
-        <v>43303</v>
-      </c>
-      <c r="P21" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="65">
-        <v>43303</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="D22" s="56">
-        <v>84</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>389</v>
-      </c>
-      <c r="G22" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="H22" s="56">
-        <v>362.88</v>
-      </c>
-      <c r="J22" s="65">
-        <v>43303</v>
-      </c>
-      <c r="K22" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="L22" s="67" t="s">
-        <v>365</v>
-      </c>
-      <c r="M22" s="56">
-        <v>30.24</v>
-      </c>
-      <c r="O22" s="83"/>
-      <c r="P22" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="65">
-        <v>43303</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>352</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="D23" s="56">
-        <v>66.08</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>389</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>415</v>
-      </c>
-      <c r="H23" s="56">
-        <v>220.8</v>
-      </c>
-      <c r="J23" s="65">
-        <v>43303</v>
-      </c>
-      <c r="K23" s="66" t="s">
+      <c r="B24" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="69">
+        <v>336</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="74">
+        <v>43304</v>
+      </c>
+      <c r="K24" s="80" t="s">
         <v>374</v>
       </c>
-      <c r="L23" s="67" t="s">
-        <v>365</v>
-      </c>
-      <c r="M23" s="56">
-        <v>168</v>
-      </c>
-      <c r="O23" s="83"/>
-      <c r="P23" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="65">
-        <v>43303</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="D24" s="56">
-        <v>336</v>
-      </c>
-      <c r="J24" s="58">
-        <v>43304</v>
-      </c>
-      <c r="K24" s="61" t="s">
-        <v>375</v>
-      </c>
-      <c r="L24" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="M24" s="56">
+      <c r="L24" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="M24" s="69">
         <v>1182.72</v>
       </c>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83">
+      <c r="N24" s="69"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85">
         <f>SUM(R20:R23)</f>
         <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="65">
+      <c r="A25" s="82">
         <v>43303</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="69">
+        <v>126</v>
+      </c>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="74">
+        <v>43304</v>
+      </c>
+      <c r="K25" s="80" t="s">
+        <v>376</v>
+      </c>
+      <c r="L25" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="M25" s="69">
+        <v>173.04</v>
+      </c>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="82">
+        <v>43303</v>
+      </c>
+      <c r="B26" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="C25" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="D25" s="56">
+      <c r="C26" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="69">
         <v>126</v>
       </c>
-      <c r="J25" s="58">
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69" t="s">
+        <v>415</v>
+      </c>
+      <c r="H26" s="69">
+        <f>SUM(H2:H25)</f>
+        <v>23609.464</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="J26" s="74">
         <v>43304</v>
       </c>
-      <c r="K25" s="61" t="s">
+      <c r="K26" s="80" t="s">
         <v>377</v>
       </c>
-      <c r="L25" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="M25" s="56">
-        <v>173.04</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="65">
+      <c r="L26" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="M26" s="69">
+        <v>71.12</v>
+      </c>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="82">
         <v>43303</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="D26" s="56">
-        <v>126</v>
-      </c>
-      <c r="J26" s="58">
+      <c r="B27" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="69">
+        <v>722.4</v>
+      </c>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="74">
         <v>43304</v>
       </c>
-      <c r="K26" s="61" t="s">
-        <v>378</v>
-      </c>
-      <c r="L26" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="M26" s="56">
-        <v>71.12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="65">
+      <c r="K27" s="80" t="s">
+        <v>379</v>
+      </c>
+      <c r="L27" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="M27" s="69">
+        <v>448</v>
+      </c>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="82">
         <v>43303</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="D27" s="56">
-        <v>722.4</v>
-      </c>
-      <c r="J27" s="58">
+      <c r="B28" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="69">
+        <v>957.6</v>
+      </c>
+      <c r="E28" s="69"/>
+      <c r="F28" s="74">
+        <v>43300</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="H28" s="69">
+        <v>2439</v>
+      </c>
+      <c r="I28" s="69"/>
+      <c r="J28" s="74">
         <v>43304</v>
       </c>
-      <c r="K27" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="L27" s="56" t="s">
+      <c r="K28" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="M27" s="56">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="65">
+      <c r="L28" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="M28" s="69">
+        <v>1106</v>
+      </c>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="82">
+        <v>43304</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="69">
+        <v>224</v>
+      </c>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="H29" s="69">
+        <v>112</v>
+      </c>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="L29" s="77" t="s">
+        <v>391</v>
+      </c>
+      <c r="M29" s="77">
+        <v>665</v>
+      </c>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="74">
+        <v>43304</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="69">
+        <v>865.2</v>
+      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="74">
+        <v>43301</v>
+      </c>
+      <c r="G30" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="H30" s="69">
+        <v>340</v>
+      </c>
+      <c r="I30" s="69"/>
+      <c r="J30" s="74">
+        <v>43304</v>
+      </c>
+      <c r="K30" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="L30" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" s="83">
+        <v>126.56000000000002</v>
+      </c>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="74">
+        <v>43304</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="69">
+        <v>890.4</v>
+      </c>
+      <c r="E31" s="69"/>
+      <c r="F31" s="74">
+        <v>43301</v>
+      </c>
+      <c r="G31" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="H31" s="69">
+        <v>600</v>
+      </c>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="74"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="H32" s="69">
+        <v>626</v>
+      </c>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69">
+        <v>23920</v>
+      </c>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="69"/>
+      <c r="B33" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69">
+        <v>888</v>
+      </c>
+      <c r="E33" s="69"/>
+      <c r="F33" s="74">
         <v>43303</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="G33" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="H33" s="69">
         <v>360</v>
       </c>
-      <c r="C28" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="D28" s="56">
-        <v>957.6</v>
-      </c>
-      <c r="J28" s="58">
-        <v>43304</v>
-      </c>
-      <c r="K28" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="L28" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="M28" s="56">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="65">
-        <v>43304</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="D29" s="56">
-        <v>224</v>
-      </c>
-      <c r="K29" s="86" t="s">
-        <v>404</v>
-      </c>
-      <c r="L29" s="86" t="s">
-        <v>392</v>
-      </c>
-      <c r="M29" s="86">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="58">
-        <v>43304</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="D30" s="56">
-        <v>865.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="58">
-        <v>43304</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="D31" s="56">
-        <v>890.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="58"/>
-      <c r="B32" s="61"/>
-      <c r="K32" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="M32" s="56">
-        <v>32794</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="56" t="s">
-        <v>395</v>
-      </c>
-      <c r="D33" s="56">
-        <v>888</v>
-      </c>
-      <c r="G33" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="H33" s="56">
-        <f ca="1">SUM(H7:H40)</f>
-        <v>23609.464</v>
-      </c>
-      <c r="K33" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="M33" s="56">
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69">
         <v>9485</v>
       </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="56" t="s">
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="69"/>
+      <c r="B34" s="69" t="s">
         <v>296</v>
       </c>
-      <c r="D34" s="56">
-        <v>30304</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="56" t="s">
+      <c r="C34" s="69"/>
+      <c r="D34" s="69">
+        <v>11104</v>
+      </c>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="H34" s="69">
+        <v>439</v>
+      </c>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69">
+        <f>SUM(M2:M30)</f>
+        <v>33405.796000000002</v>
+      </c>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="69"/>
+      <c r="R34" s="69"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="D35" s="56">
+      <c r="C35" s="69"/>
+      <c r="D35" s="83">
         <v>9299</v>
       </c>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="D36" s="56">
+      <c r="E35" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69" t="s">
+        <v>422</v>
+      </c>
+      <c r="H35" s="69">
+        <v>328</v>
+      </c>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69">
         <v>8400</v>
       </c>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="56" t="s">
-        <v>416</v>
-      </c>
-      <c r="D37" s="56">
+      <c r="E36" s="69" t="s">
+        <v>438</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="H36" s="69">
+        <v>172</v>
+      </c>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="91" t="s">
+        <v>446</v>
+      </c>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91">
+        <f>SUM(D50+M34)</f>
+        <v>60611.129333333338</v>
+      </c>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="69"/>
+      <c r="B37" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69">
         <f>SUM(D35-D36)</f>
         <v>899</v>
       </c>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="C39" s="56" t="s">
+      <c r="E37" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69" t="s">
+        <v>424</v>
+      </c>
+      <c r="H37" s="69">
+        <v>225</v>
+      </c>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="91" t="s">
+        <v>447</v>
+      </c>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91">
+        <f>SUM(M36/2)</f>
+        <v>30305.564666666669</v>
+      </c>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="74">
+        <v>43304</v>
+      </c>
+      <c r="G38" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="H38" s="69">
+        <v>363</v>
+      </c>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="D39" s="56">
-        <f>SUM(D2:D31)</f>
-        <v>40490.240000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="C40" s="56" t="s">
+      <c r="D39" s="69">
+        <f>SUM(D33:D35)</f>
+        <v>21291</v>
+      </c>
+      <c r="E39" s="69"/>
+      <c r="F39" s="74">
+        <v>43302</v>
+      </c>
+      <c r="G39" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="H39" s="69">
+        <v>61</v>
+      </c>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="69"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="69">
         <f>SUM(D39/3)</f>
-        <v>13496.746666666668</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="56" t="s">
+        <v>7097</v>
+      </c>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="H40" s="69">
+        <v>605</v>
+      </c>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="69"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="H41" s="69">
+        <v>280</v>
+      </c>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69">
+        <f>SUM(D39-D35)</f>
+        <v>11992</v>
+      </c>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="H42" s="69">
+        <v>156</v>
+      </c>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69" t="s">
         <v>397</v>
       </c>
-      <c r="D42" s="56">
-        <f>SUM(D33:D34)</f>
-        <v>31192</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="56" t="s">
-        <v>398</v>
-      </c>
-      <c r="D43" s="56">
+      <c r="C43" s="69"/>
+      <c r="D43" s="92">
         <f>SUM(D42/3)</f>
-        <v>10397.333333333334</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="56" t="s">
-        <v>400</v>
-      </c>
-      <c r="D44" s="56">
-        <f>10397-888+899</f>
-        <v>10408</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="D45" s="56">
+        <v>3997.3333333333335</v>
+      </c>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="H43" s="69">
+        <v>242</v>
+      </c>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="69"/>
+      <c r="R43" s="69"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="69"/>
+      <c r="B44" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69">
+        <f>3997-888+899</f>
+        <v>4008</v>
+      </c>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69" t="s">
+        <v>432</v>
+      </c>
+      <c r="H44" s="69">
+        <v>557</v>
+      </c>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="69"/>
+      <c r="B45" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69">
         <f>SUM(D43:D44)</f>
-        <v>20805.333333333336</v>
-      </c>
+        <v>8005.3333333333339</v>
+      </c>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G45" s="69" t="s">
+        <v>413</v>
+      </c>
+      <c r="H45" s="69">
+        <v>220.8</v>
+      </c>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="74">
+        <v>43124</v>
+      </c>
+      <c r="G46" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="H46" s="69">
+        <v>7224</v>
+      </c>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="71">
+        <v>43300</v>
+      </c>
+      <c r="B47" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="C47" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" s="77">
+        <v>11753</v>
+      </c>
+      <c r="E47" s="69"/>
+      <c r="F47" s="82">
+        <v>43302</v>
+      </c>
+      <c r="G47" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" s="69">
+        <v>537</v>
+      </c>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="69"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="71">
+        <v>43302</v>
+      </c>
+      <c r="B48" s="79" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" s="77">
+        <v>7447</v>
+      </c>
+      <c r="E48" s="69"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="84" t="s">
+        <v>435</v>
+      </c>
+      <c r="H48" s="69">
+        <v>2654</v>
+      </c>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69">
+        <f>SUM(D47:D48)</f>
+        <v>19200</v>
+      </c>
+      <c r="E49" s="69"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="69"/>
+      <c r="B50" s="69" t="s">
+        <v>444</v>
+      </c>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69">
+        <f>SUM(D45+D49)</f>
+        <v>27205.333333333336</v>
+      </c>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="H50" s="69">
+        <f>SUM(H28:H49)</f>
+        <v>18540.8</v>
+      </c>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="69"/>
+      <c r="B52" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="92">
+        <f>(D39+D49)/3</f>
+        <v>13497</v>
+      </c>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L45"/>
+  <autoFilter ref="C1:C50"/>
   <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
